--- a/artfynd/A 61289-2022.xlsx
+++ b/artfynd/A 61289-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106077283</v>
+        <v>104986863</v>
       </c>
       <c r="B2" t="n">
-        <v>56278</v>
+        <v>57193</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100011</v>
+        <v>206004</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kungsörn</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Aquila chrysaetos</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -718,24 +718,27 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
+          <t>gående/springande</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Styggtjärnsberget, Dlr</t>
+          <t>Gläfse, Jörken, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>537773.3909779217</v>
+        <v>537888.8853063835</v>
       </c>
       <c r="R2" t="n">
-        <v>6668679.681769322</v>
+        <v>6669232.05540918</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,27 +762,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Mötte örn 1 och de kollade in varandra och tog några svängar tillsammans i två omgångar. Uppfattades av mig som uppvaktning, men ej att de var ett etablerat par. De skiljdes sedan och denna örn drog vidare åt väster. Åldern bedömdes t subad me</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,22 +792,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Samuel Keith</t>
+          <t>Lars Mattsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Samuel Keith</t>
+          <t>Lars Mattsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104986863</v>
+        <v>106077283</v>
       </c>
       <c r="B3" t="n">
-        <v>57193</v>
+        <v>56278</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +820,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>206004</v>
+        <v>100011</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Kungsörn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Aquila chrysaetos</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -844,27 +842,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>gående/springande</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Gläfse, Jörken, Dlr</t>
+          <t>Styggtjärnsberget, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>537888.8853063835</v>
+        <v>537773.3909779217</v>
       </c>
       <c r="R3" t="n">
-        <v>6669232.05540918</v>
+        <v>6668679.681769322</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -888,22 +883,27 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Mötte örn 1 och de kollade in varandra och tog några svängar tillsammans i två omgångar. Uppfattades av mig som uppvaktning, men ej att de var ett etablerat par. De skiljdes sedan och denna örn drog vidare åt väster. Åldern bedömdes t subad me</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -918,12 +918,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Lars Mattsson</t>
+          <t>Samuel Keith</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Lars Mattsson</t>
+          <t>Samuel Keith</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>

--- a/artfynd/A 61289-2022.xlsx
+++ b/artfynd/A 61289-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104986863</v>
+        <v>106077283</v>
       </c>
       <c r="B2" t="n">
-        <v>57193</v>
+        <v>56278</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>206004</v>
+        <v>100011</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Kungsörn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Aquila chrysaetos</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -718,27 +718,24 @@
           <t>1</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>gående/springande</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>förbiflygande</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Gläfse, Jörken, Dlr</t>
+          <t>Styggtjärnsberget, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>537888.8853063835</v>
+        <v>537773.3909779217</v>
       </c>
       <c r="R2" t="n">
-        <v>6669232.05540918</v>
+        <v>6668679.681769322</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -762,22 +759,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Mötte örn 1 och de kollade in varandra och tog några svängar tillsammans i två omgångar. Uppfattades av mig som uppvaktning, men ej att de var ett etablerat par. De skiljdes sedan och denna örn drog vidare åt väster. Åldern bedömdes t subad me</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,22 +794,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Lars Mattsson</t>
+          <t>Samuel Keith</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Lars Mattsson</t>
+          <t>Samuel Keith</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106077283</v>
+        <v>104986863</v>
       </c>
       <c r="B3" t="n">
-        <v>56278</v>
+        <v>57193</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100011</v>
+        <v>206004</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kungsörn</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Aquila chrysaetos</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -842,24 +844,27 @@
           <t>1</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
+          <t>gående/springande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Styggtjärnsberget, Dlr</t>
+          <t>Gläfse, Jörken, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>537773.3909779217</v>
+        <v>537888.8853063835</v>
       </c>
       <c r="R3" t="n">
-        <v>6668679.681769322</v>
+        <v>6669232.05540918</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -883,27 +888,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Mötte örn 1 och de kollade in varandra och tog några svängar tillsammans i två omgångar. Uppfattades av mig som uppvaktning, men ej att de var ett etablerat par. De skiljdes sedan och denna örn drog vidare åt väster. Åldern bedömdes t subad me</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -918,12 +918,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Samuel Keith</t>
+          <t>Lars Mattsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Samuel Keith</t>
+          <t>Lars Mattsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
